--- a/src/test/java/tests/day13_ExcelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/tests/day13_ExcelOtomasyon/ulkeler.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF5E0EB-A918-D743-B794-B528AAA98F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C23DA8-49AC-D348-A95F-799ED81C1042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2170,7 +2171,7 @@
   <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4882,4 +4883,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61790441-1597-C34E-B3D9-A8569672DAA6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/tests/day13_ExcelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/tests/day13_ExcelOtomasyon/ulkeler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C23DA8-49AC-D348-A95F-799ED81C1042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5887B6E6-115E-CB48-87F2-E0C7516C87A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -2170,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4861,14 +4861,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/java/tests/day13_ExcelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/tests/day13_ExcelOtomasyon/ulkeler.xlsx
@@ -3,19 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5887B6E6-115E-CB48-87F2-E0C7516C87A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF5E0EB-A918-D743-B794-B528AAA98F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1742,12 +1741,25 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>54000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2168,15 +2180,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2192,6 +2204,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>573</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2206,6 +2221,9 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s" s="0">
+        <v>574</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2318,6 +2336,9 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E10" t="s" s="0">
+        <v>575</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2387,6 +2408,9 @@
       </c>
       <c r="D15" s="7" t="s">
         <v>49</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -4861,77 +4885,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F22"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4946,16 +4907,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61790441-1597-C34E-B3D9-A8569672DAA6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>